--- a/data/trans_dic/P16B06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,99%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>52,3; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>63,97; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>87,39; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>72,19; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>90,72; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>90,81; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>68,87; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>73,56; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>93,07; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>88,72; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>82,19; 98,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>93,93; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>90,61; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,29%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>51,64; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>66,69; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>83,73; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>91,02; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>82,48; 98,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>96,25; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>90,48; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>77,11; 97,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>81,01; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>73,84; 96,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>88,16; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>84,67; 98,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>86,64; 97,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>88,64; 98,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>88,71; 98,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>87,48; 96,81</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>80,31; 95,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>91,44; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>88,97; 98,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>90,78; 98,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>94,72; 99,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>92,81; 97,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>89,02; 96,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>95,51; 99,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>93,19; 97,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>93,32%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>92,47%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>49,88%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,88%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,37%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,3; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>64,71; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>69,1; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>89,8; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>67,8; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>90,78; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>90,81; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,3; 100,0</t>
+          <t>68,87; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,97; 100,0</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>73,56; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,19; 100</t>
+          <t>93,07; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100,0</t>
+          <t>88,72; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,19; 100,0</t>
+          <t>82,19; 98,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,72; 100,0</t>
+          <t>93,93; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,81; 100,0</t>
+          <t>90,61; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,37 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>94,45%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>95,32%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>92,77%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>98,64%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,29%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,87; 100,0</t>
+          <t>51,64; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,73; 100</t>
+          <t>66,69; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73,56; 100,0</t>
+          <t>83,73; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,07; 100,0</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>88,72; 100,0</t>
+          <t>91,02; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,19; 98,05</t>
+          <t>82,48; 98,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>93,93; 100,0</t>
+          <t>96,25; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,61; 100,0</t>
+          <t>90,48; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>93,0%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,64; 100,0</t>
+          <t>77,11; 97,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>81,01; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,69; 100,0</t>
+          <t>73,84; 96,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,73; 100,0</t>
+          <t>88,16; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>84,67; 98,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,02; 100,0</t>
+          <t>86,64; 97,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,48; 98,31</t>
+          <t>88,64; 98,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,25; 100</t>
+          <t>88,71; 98,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,48; 100,0</t>
+          <t>87,48; 96,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,11; 97,2</t>
+          <t>80,31; 95,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,01; 100,0</t>
+          <t>91,44; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,84; 96,91</t>
+          <t>88,97; 98,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,16; 100,0</t>
+          <t>90,78; 98,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,67; 98,58</t>
+          <t>94,72; 99,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,64; 97,65</t>
+          <t>92,81; 97,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,64; 98,03</t>
+          <t>89,02; 96,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,71; 98,92</t>
+          <t>95,51; 99,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,48; 96,81</t>
+          <t>93,19; 97,62</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>90,57%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>97,39%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>95,46%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>95,05%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>97,9%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>95,99%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>93,64%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>97,78%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>95,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>80,31; 95,91</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>91,44; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>88,97; 98,81</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>90,78; 98,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>94,72; 99,53</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>92,81; 97,98</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>89,02; 96,32</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>95,51; 99,03</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>93,19; 97,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,3; 100,0</t>
+          <t>52,36; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,71; 100,0</t>
+          <t>65,05; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,1; 100,0</t>
+          <t>61,83; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +711,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,8; 100,0</t>
+          <t>88,41; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,8; 100,0</t>
+          <t>71,51; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,78; 100,0</t>
+          <t>89,89; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,81; 100,0</t>
+          <t>90,82; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,87; 100,0</t>
+          <t>74,46; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,56; 100,0</t>
+          <t>77,77; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,07; 100,0</t>
+          <t>91,81; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,72; 100,0</t>
+          <t>89,31; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,19; 98,05</t>
+          <t>80,62; 98,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,93; 100,0</t>
+          <t>94,23; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,61; 100,0</t>
+          <t>91,8; 100,0</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,64; 100,0</t>
+          <t>50,12; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,12 +916,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,69; 100,0</t>
+          <t>76,73; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,73; 100,0</t>
+          <t>85,83; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,02; 100,0</t>
+          <t>92,59; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,48; 98,31</t>
+          <t>82,1; 98,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,48; 100,0</t>
+          <t>90,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,11; 97,2</t>
+          <t>75,5; 97,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,01; 100,0</t>
+          <t>82,56; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>73,84; 96,91</t>
+          <t>74,35; 96,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,16; 100,0</t>
+          <t>89,72; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,67; 98,58</t>
+          <t>84,83; 98,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,64; 97,65</t>
+          <t>86,87; 97,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,64; 98,03</t>
+          <t>88,64; 98,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,71; 98,92</t>
+          <t>87,9; 98,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,48; 96,81</t>
+          <t>86,49; 96,69</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,31; 95,91</t>
+          <t>79,76; 96,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,44; 100,0</t>
+          <t>91,68; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,97; 98,81</t>
+          <t>89,59; 98,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,78; 98,07</t>
+          <t>90,59; 97,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,72; 99,53</t>
+          <t>94,52; 99,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,81; 97,98</t>
+          <t>93,27; 98,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,02; 96,32</t>
+          <t>89,43; 96,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,51; 99,03</t>
+          <t>95,42; 99,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93,19; 97,62</t>
+          <t>93,07; 97,71</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas pastillas para dormir fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7554</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11866</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15485</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10647</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33855</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>55706</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18202</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45721</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>71191</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4505; 8604</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8272; 12716</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13759; 15485</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7120; 11514</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31955; 33855</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>50951; 57631</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14385; 20118</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41864; 46571</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66405; 73116</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14984</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10785</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24508</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29699</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>76682</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57256</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44682</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87468</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81764</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11864; 15934</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8943; 10785</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22481; 24508</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24895; 32013</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>71369; 77737</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>53027; 59375</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>38653; 47007</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>83413; 88523</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>77003; 83883</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18431</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17309</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35843</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41907</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52885</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46816</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60338</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>70194</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6290; 12549</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15945; 18431</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14062; 18326</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32272; 37602</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39801; 41907</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>49836; 53827</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41172; 49275</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58075; 60338</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>65043; 72152</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25289</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25294</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25708</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>57526</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>64777</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>87458</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>82815</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>90070</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>113167</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21017; 27051</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21651; 26224</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21296; 27776</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>53421; 59543</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>58005; 67415</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>80823; 91114</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>77454; 85680</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>83154; 92966</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>105241; 117652</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>58801</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>66377</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>83010</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>133714</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>217221</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>253306</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>192515</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>283597</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>336315</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>51785; 62435</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62482; 68156</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>77904; 85951</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>127439; 137815</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>209715; 220252</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>246106; 258724</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>183870; 198641</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>276755; 288028</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>326511; 342802</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>